--- a/conv_rate(2018).xlsx
+++ b/conv_rate(2018).xlsx
@@ -11,17 +11,12 @@
     <sheet name="Average Convergence Rate" sheetId="2" r:id="rId2"/>
     <sheet name="Time speed" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Time speed'!$A$22</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Time speed'!$B$1:$K$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Time speed'!$B$22:$K$22</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="43">
   <si>
     <t>Row</t>
   </si>
@@ -145,6 +140,12 @@
   <si>
     <t>Time Speed</t>
   </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Absolute Mean</t>
+  </si>
 </sst>
 </file>
 
@@ -167,12 +168,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -202,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -211,6 +218,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5545,10 +5553,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6286,6 +6294,96 @@
       </c>
       <c r="K21">
         <v>-6.79994550609141E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22">
+        <f>AVERAGE(B2:B21)</f>
+        <v>-3.5227088283706571E-3</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22:K22" si="0">AVERAGE(C2:C21)</f>
+        <v>0.1055579737398247</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>-3.77549457686326E-2</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>-0.62047934684513462</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0.12709483084847512</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>-0.10637134393011656</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>-0.34552210133215988</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>-6.7209668433966557E-2</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>-3.1659667817550341E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23">
+        <f>ABS(B22)</f>
+        <v>3.5227088283706571E-3</v>
+      </c>
+      <c r="C23" s="4">
+        <f>ABS(C22)</f>
+        <v>0.1055579737398247</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:K23" si="1">ABS(D22)</f>
+        <v>3.77549457686326E-2</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="1"/>
+        <v>0.62047934684513462</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="1"/>
+        <v>0.12709483084847512</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="1"/>
+        <v>0.10637134393011656</v>
+      </c>
+      <c r="I23" s="4">
+        <f t="shared" si="1"/>
+        <v>0.34552210133215988</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>6.7209668433966557E-2</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>3.1659667817550341E-3</v>
       </c>
     </row>
   </sheetData>
@@ -6299,7 +6397,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:B35"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
